--- a/documentation/User Stories and Requirements Stack.xlsx
+++ b/documentation/User Stories and Requirements Stack.xlsx
@@ -1,26 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alesa\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504E1D6B-1580-47CB-A556-EF6914044976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Agile Reference Stories" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Requirements Stack" sheetId="2" r:id="rId5"/>
+    <sheet name="Agile Reference Stories" sheetId="1" r:id="rId1"/>
+    <sheet name="Requirements Stack" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="E2">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
-        <t xml:space="preserve">Leave blank (according to the assignment instructions)
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Leave blank (according to the assignment instructions)
 	-Alesan99</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -294,32 +311,35 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -329,7 +349,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -351,7 +371,13 @@
     </fill>
   </fills>
   <borders count="13">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF284E3F"/>
@@ -365,6 +391,7 @@
       <bottom style="thin">
         <color rgb="FF284E3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -379,6 +406,7 @@
       <bottom style="thin">
         <color rgb="FFD9D9D9"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -393,6 +421,7 @@
       <bottom style="thin">
         <color rgb="FFD9D9D9"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -407,6 +436,7 @@
       <bottom style="thin">
         <color rgb="FFD9D9D9"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -421,6 +451,7 @@
       <bottom style="thin">
         <color rgb="FF284E3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -435,6 +466,7 @@
       <bottom style="thin">
         <color rgb="FF284E3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -449,6 +481,7 @@
       <bottom style="thin">
         <color rgb="FF284E3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -463,24 +496,36 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -489,178 +534,149 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+  <cellXfs count="27">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF6F8F9"/>
+          <bgColor rgb="FFF6F8F9"/>
+        </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF356854"/>
           <bgColor rgb="FF356854"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF6F8F9"/>
-          <bgColor rgb="FFF6F8F9"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="4" pivot="0" name="Agile Reference Stories-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
-      <tableStyleElement size="0" type="wholeTable"/>
+    <tableStyle name="Agile Reference Stories-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" size="0"/>
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D25" displayName="User_Stories" name="User_Stories" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="User_Stories" displayName="User_Stories" ref="A1:D25">
   <tableColumns count="4">
-    <tableColumn name="Reference Story No." id="1"/>
-    <tableColumn name="Pool (1, 2, 3, 5, 8, 13, or 21)" id="2"/>
-    <tableColumn name="Story Source" id="3"/>
-    <tableColumn name="Story Summary" id="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Reference Story No."/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Pool (1, 2, 3, 5, 8, 13, or 21)"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Story Source"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Story Summary"/>
   </tableColumns>
-  <tableStyleInfo name="Agile Reference Stories-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Agile Reference Stories-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -850,29 +866,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.75"/>
-    <col customWidth="1" min="2" max="2" width="24.25"/>
-    <col customWidth="1" min="3" max="3" width="19.13"/>
-    <col customWidth="1" min="4" max="4" width="55.5"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="55.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -886,12 +905,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="5">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>4</v>
@@ -903,12 +922,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>4</v>
@@ -917,12 +936,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>4</v>
@@ -931,12 +950,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>4</v>
@@ -945,12 +964,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>4</v>
@@ -959,12 +978,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>4</v>
@@ -973,12 +992,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>4</v>
@@ -987,12 +1006,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="5">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>13</v>
@@ -1001,12 +1020,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="5">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>13</v>
@@ -1015,12 +1034,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="5">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>13</v>
@@ -1029,12 +1048,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="5">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>13</v>
@@ -1043,12 +1062,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>18</v>
@@ -1057,12 +1076,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>18</v>
@@ -1071,12 +1090,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="5">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>18</v>
@@ -1085,12 +1104,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="5">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>22</v>
@@ -1099,12 +1118,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="5">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>22</v>
@@ -1113,12 +1132,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>22</v>
@@ -1127,12 +1146,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>22</v>
@@ -1141,12 +1160,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="5">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>27</v>
@@ -1155,12 +1174,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>29</v>
@@ -1169,12 +1188,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B22" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>31</v>
@@ -1183,12 +1202,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B23" s="5">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>33</v>
@@ -1197,12 +1216,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B24" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>35</v>
@@ -1211,12 +1230,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B25" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>37</v>
@@ -1226,36 +1245,37 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A25">
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A25" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>AND(ISNUMBER(A2),(NOT(OR(NOT(ISERROR(DATEVALUE(A2))), AND(ISNUMBER(A2), LEFT(CELL("format", A2))="D")))))</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="34.38"/>
+    <col min="2" max="2" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C1" s="12" t="s">
@@ -1268,668 +1288,668 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="D2" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="E2" s="14"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="C2" s="13">
+        <v>3</v>
+      </c>
+      <c r="D2" s="13">
+        <v>1</v>
+      </c>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="D3" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="E3" s="16"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="15" t="s">
+      <c r="C3" s="15">
+        <v>3</v>
+      </c>
+      <c r="D3" s="15">
+        <v>3</v>
+      </c>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="14">
-        <v>5.0</v>
-      </c>
-      <c r="D4" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="16">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="17" t="s">
+      <c r="C4" s="13">
+        <v>5</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1</v>
+      </c>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="16">
-        <v>13.0</v>
-      </c>
-      <c r="D5" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="14">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="15" t="s">
+      <c r="C5" s="15">
+        <v>13</v>
+      </c>
+      <c r="D5" s="15">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="14">
-        <v>5.0</v>
-      </c>
-      <c r="D6" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="16">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="17" t="s">
+      <c r="C6" s="13">
+        <v>5</v>
+      </c>
+      <c r="D6" s="13">
+        <v>2</v>
+      </c>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="15">
+        <v>6</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="16">
-        <v>5.0</v>
-      </c>
-      <c r="D7" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="14">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="15" t="s">
+      <c r="C7" s="15">
+        <v>5</v>
+      </c>
+      <c r="D7" s="15">
+        <v>2</v>
+      </c>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="D8" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="16">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="17" t="s">
+      <c r="C8" s="13">
+        <v>3</v>
+      </c>
+      <c r="D8" s="13">
+        <v>3</v>
+      </c>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="15">
+        <v>8</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="16">
-        <v>5.0</v>
-      </c>
-      <c r="D9" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="16"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="14">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="15" t="s">
+      <c r="C9" s="15">
+        <v>5</v>
+      </c>
+      <c r="D9" s="15">
+        <v>1</v>
+      </c>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="14">
-        <v>5.0</v>
-      </c>
-      <c r="D10" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="16">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="17" t="s">
+      <c r="C10" s="13">
+        <v>5</v>
+      </c>
+      <c r="D10" s="13">
+        <v>1</v>
+      </c>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="15">
+        <v>10</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="16">
-        <v>5.0</v>
-      </c>
-      <c r="D11" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="14">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="15" t="s">
+      <c r="C11" s="15">
+        <v>5</v>
+      </c>
+      <c r="D11" s="15">
+        <v>1</v>
+      </c>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="14">
-        <v>5.0</v>
-      </c>
-      <c r="D12" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="16">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="17" t="s">
+      <c r="C12" s="13">
+        <v>5</v>
+      </c>
+      <c r="D12" s="13">
+        <v>1</v>
+      </c>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="15">
+        <v>12</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="16">
-        <v>5.0</v>
-      </c>
-      <c r="D13" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="14">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="15" t="s">
+      <c r="C13" s="15">
+        <v>5</v>
+      </c>
+      <c r="D13" s="15">
+        <v>2</v>
+      </c>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
+        <v>13</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="D14" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="E14" s="14"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="16">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="17" t="s">
+      <c r="C14" s="13">
+        <v>3</v>
+      </c>
+      <c r="D14" s="13">
+        <v>3</v>
+      </c>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="D15" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="E15" s="16"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="14">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="15" t="s">
+      <c r="C15" s="15">
+        <v>3</v>
+      </c>
+      <c r="D15" s="15">
+        <v>3</v>
+      </c>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
+        <v>15</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="14">
-        <v>5.0</v>
-      </c>
-      <c r="D16" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="16">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="17" t="s">
+      <c r="C16" s="13">
+        <v>5</v>
+      </c>
+      <c r="D16" s="13">
+        <v>1</v>
+      </c>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="15">
+        <v>16</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="D17" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="14">
-        <v>17.0</v>
-      </c>
-      <c r="B18" s="15" t="s">
+      <c r="C17" s="15">
+        <v>3</v>
+      </c>
+      <c r="D17" s="15">
+        <v>1</v>
+      </c>
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="13">
+        <v>17</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="14">
-        <v>5.0</v>
-      </c>
-      <c r="D18" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="E18" s="14"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="16">
-        <v>18.0</v>
-      </c>
-      <c r="B19" s="17" t="s">
+      <c r="C18" s="13">
+        <v>5</v>
+      </c>
+      <c r="D18" s="13">
+        <v>2</v>
+      </c>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="15">
+        <v>18</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="D19" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="14">
-        <v>19.0</v>
-      </c>
-      <c r="B20" s="15" t="s">
+      <c r="C19" s="15">
+        <v>3</v>
+      </c>
+      <c r="D19" s="15">
+        <v>3</v>
+      </c>
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="13">
+        <v>19</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="D20" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="16">
-        <v>20.0</v>
-      </c>
-      <c r="B21" s="18" t="s">
+      <c r="C20" s="13">
+        <v>3</v>
+      </c>
+      <c r="D20" s="13">
+        <v>3</v>
+      </c>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="15">
+        <v>20</v>
+      </c>
+      <c r="B21" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="19">
-        <v>8.0</v>
-      </c>
-      <c r="D21" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="14">
-        <v>21.0</v>
-      </c>
-      <c r="B22" s="18" t="s">
+      <c r="C21" s="18">
+        <v>8</v>
+      </c>
+      <c r="D21" s="19">
+        <v>2</v>
+      </c>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="13">
+        <v>21</v>
+      </c>
+      <c r="B22" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="19">
-        <v>8.0</v>
-      </c>
-      <c r="D22" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="E22" s="14"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="16">
-        <v>22.0</v>
-      </c>
-      <c r="B23" s="21" t="s">
+      <c r="C22" s="18">
+        <v>8</v>
+      </c>
+      <c r="D22" s="19">
+        <v>1</v>
+      </c>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="15">
+        <v>22</v>
+      </c>
+      <c r="B23" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="22">
-        <v>13.0</v>
-      </c>
-      <c r="D23" s="23">
-        <v>4.0</v>
-      </c>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="14">
-        <v>23.0</v>
-      </c>
-      <c r="B24" s="17" t="s">
+      <c r="C23" s="21">
+        <v>13</v>
+      </c>
+      <c r="D23" s="22">
+        <v>4</v>
+      </c>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="13">
+        <v>23</v>
+      </c>
+      <c r="B24" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="D24" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="E24" s="14"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="16">
-        <v>24.0</v>
-      </c>
-      <c r="B25" s="15" t="s">
+      <c r="C24" s="15">
+        <v>3</v>
+      </c>
+      <c r="D24" s="15">
+        <v>3</v>
+      </c>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
+        <v>24</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="14">
-        <v>5.0</v>
-      </c>
-      <c r="D25" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="14">
-        <v>25.0</v>
-      </c>
-      <c r="B26" s="17" t="s">
+      <c r="C25" s="13">
+        <v>5</v>
+      </c>
+      <c r="D25" s="13">
+        <v>1</v>
+      </c>
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="13">
+        <v>25</v>
+      </c>
+      <c r="B26" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="16">
-        <v>5.0</v>
-      </c>
-      <c r="D26" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="16">
-        <v>26.0</v>
-      </c>
-      <c r="B27" s="15" t="s">
+      <c r="C26" s="15">
+        <v>5</v>
+      </c>
+      <c r="D26" s="15">
+        <v>2</v>
+      </c>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="15">
+        <v>26</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="14">
-        <v>8.0</v>
-      </c>
-      <c r="D27" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="E27" s="14"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="14">
-        <v>27.0</v>
-      </c>
-      <c r="B28" s="17" t="s">
+      <c r="C27" s="13">
+        <v>8</v>
+      </c>
+      <c r="D27" s="13">
+        <v>2</v>
+      </c>
+      <c r="E27" s="13"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="13">
+        <v>27</v>
+      </c>
+      <c r="B28" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="16">
-        <v>5.0</v>
-      </c>
-      <c r="D28" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="E28" s="16"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="24">
-        <v>28.0</v>
-      </c>
-      <c r="B29" s="25" t="s">
+      <c r="C28" s="15">
+        <v>5</v>
+      </c>
+      <c r="D28" s="15">
+        <v>1</v>
+      </c>
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="15">
+        <v>28</v>
+      </c>
+      <c r="B29" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="26">
-        <v>13.0</v>
-      </c>
-      <c r="D29" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="E29" s="14"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="27">
-        <v>29.0</v>
-      </c>
-      <c r="B30" s="15" t="s">
+      <c r="C29" s="24">
+        <v>13</v>
+      </c>
+      <c r="D29" s="21">
+        <v>1</v>
+      </c>
+      <c r="E29" s="13"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="25">
+        <v>29</v>
+      </c>
+      <c r="B30" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="D30" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="E30" s="24"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="27">
-        <v>30.0</v>
-      </c>
-      <c r="B31" s="15" t="s">
+      <c r="C30" s="13">
+        <v>3</v>
+      </c>
+      <c r="D30" s="13">
+        <v>3</v>
+      </c>
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="25">
+        <v>30</v>
+      </c>
+      <c r="B31" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="D31" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="E31" s="27"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="27">
-        <v>31.0</v>
-      </c>
-      <c r="B32" s="17" t="s">
+      <c r="C31" s="13">
+        <v>3</v>
+      </c>
+      <c r="D31" s="13">
+        <v>3</v>
+      </c>
+      <c r="E31" s="25"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="25">
+        <v>31</v>
+      </c>
+      <c r="B32" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="16">
-        <v>5.0</v>
-      </c>
-      <c r="D32" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="E32" s="27"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="27">
-        <v>32.0</v>
-      </c>
-      <c r="B33" s="15" t="s">
+      <c r="C32" s="15">
+        <v>5</v>
+      </c>
+      <c r="D32" s="15">
+        <v>3</v>
+      </c>
+      <c r="E32" s="25"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="25">
+        <v>32</v>
+      </c>
+      <c r="B33" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="14">
-        <v>5.0</v>
-      </c>
-      <c r="D33" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="E33" s="27"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="27">
-        <v>33.0</v>
-      </c>
-      <c r="B34" s="28" t="s">
+      <c r="C33" s="13">
+        <v>5</v>
+      </c>
+      <c r="D33" s="13">
+        <v>2</v>
+      </c>
+      <c r="E33" s="25"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="25">
+        <v>33</v>
+      </c>
+      <c r="B34" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="24">
-        <v>8.0</v>
-      </c>
-      <c r="D34" s="24">
-        <v>2.0</v>
-      </c>
-      <c r="E34" s="27"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="27">
-        <v>34.0</v>
-      </c>
-      <c r="B35" s="29" t="s">
+      <c r="C34" s="15">
+        <v>8</v>
+      </c>
+      <c r="D34" s="15">
+        <v>2</v>
+      </c>
+      <c r="E34" s="25"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="25">
+        <v>34</v>
+      </c>
+      <c r="B35" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="27">
-        <v>8.0</v>
-      </c>
-      <c r="D35" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="E35" s="27"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="27">
-        <v>35.0</v>
-      </c>
-      <c r="B36" s="29" t="s">
+      <c r="C35" s="25">
+        <v>8</v>
+      </c>
+      <c r="D35" s="25">
+        <v>2</v>
+      </c>
+      <c r="E35" s="25"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="25">
+        <v>35</v>
+      </c>
+      <c r="B36" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="27">
-        <v>3.0</v>
-      </c>
-      <c r="D36" s="27">
-        <v>3.0</v>
-      </c>
-      <c r="E36" s="27"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="27">
-        <v>36.0</v>
-      </c>
-      <c r="B37" s="29" t="s">
+      <c r="C36" s="25">
+        <v>3</v>
+      </c>
+      <c r="D36" s="25">
+        <v>3</v>
+      </c>
+      <c r="E36" s="25"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="25">
+        <v>36</v>
+      </c>
+      <c r="B37" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="27">
-        <v>3.0</v>
-      </c>
-      <c r="D37" s="27">
-        <v>3.0</v>
-      </c>
-      <c r="E37" s="27"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="27">
-        <v>37.0</v>
-      </c>
-      <c r="B38" s="29" t="s">
+      <c r="C37" s="25">
+        <v>3</v>
+      </c>
+      <c r="D37" s="25">
+        <v>3</v>
+      </c>
+      <c r="E37" s="25"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="25">
+        <v>37</v>
+      </c>
+      <c r="B38" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="27">
-        <v>5.0</v>
-      </c>
-      <c r="D38" s="27">
-        <v>3.0</v>
-      </c>
-      <c r="E38" s="27"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="27">
-        <v>38.0</v>
-      </c>
-      <c r="B39" s="29" t="s">
+      <c r="C38" s="25">
+        <v>5</v>
+      </c>
+      <c r="D38" s="25">
+        <v>3</v>
+      </c>
+      <c r="E38" s="25"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="25">
+        <v>38</v>
+      </c>
+      <c r="B39" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="27">
-        <v>8.0</v>
-      </c>
-      <c r="D39" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="E39" s="27"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="27">
-        <v>39.0</v>
-      </c>
-      <c r="B40" s="29" t="s">
+      <c r="C39" s="25">
+        <v>8</v>
+      </c>
+      <c r="D39" s="25">
+        <v>2</v>
+      </c>
+      <c r="E39" s="25"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="25">
+        <v>39</v>
+      </c>
+      <c r="B40" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="27">
-        <v>5.0</v>
-      </c>
-      <c r="D40" s="27">
-        <v>3.0</v>
-      </c>
-      <c r="E40" s="27"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="27">
-        <v>40.0</v>
-      </c>
-      <c r="B41" s="29" t="s">
+      <c r="C40" s="25">
+        <v>5</v>
+      </c>
+      <c r="D40" s="25">
+        <v>3</v>
+      </c>
+      <c r="E40" s="25"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="25">
+        <v>40</v>
+      </c>
+      <c r="B41" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="27">
-        <v>5.0</v>
-      </c>
-      <c r="D41" s="27">
-        <v>3.0</v>
-      </c>
-      <c r="E41" s="27"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="27">
-        <v>41.0</v>
-      </c>
-      <c r="B42" s="29" t="s">
+      <c r="C41" s="25">
+        <v>5</v>
+      </c>
+      <c r="D41" s="25">
+        <v>3</v>
+      </c>
+      <c r="E41" s="25"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="25">
+        <v>41</v>
+      </c>
+      <c r="B42" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="27">
-        <v>8.0</v>
-      </c>
-      <c r="D42" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="E42" s="27"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="27">
-        <v>42.0</v>
-      </c>
-      <c r="B43" s="29" t="s">
+      <c r="C42" s="25">
+        <v>8</v>
+      </c>
+      <c r="D42" s="25">
+        <v>2</v>
+      </c>
+      <c r="E42" s="25"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="25">
+        <v>42</v>
+      </c>
+      <c r="B43" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="27">
-        <v>3.0</v>
-      </c>
-      <c r="D43" s="27">
-        <v>4.0</v>
-      </c>
-      <c r="E43" s="27"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="27">
-        <v>43.0</v>
-      </c>
-      <c r="B44" s="29" t="s">
+      <c r="C43" s="25">
+        <v>3</v>
+      </c>
+      <c r="D43" s="25">
+        <v>4</v>
+      </c>
+      <c r="E43" s="25"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="25">
+        <v>43</v>
+      </c>
+      <c r="B44" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="27">
-        <v>3.0</v>
-      </c>
-      <c r="D44" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="E44" s="27"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="27">
-        <v>44.0</v>
-      </c>
-      <c r="B45" s="29" t="s">
+      <c r="C44" s="25">
+        <v>3</v>
+      </c>
+      <c r="D44" s="25">
+        <v>2</v>
+      </c>
+      <c r="E44" s="25"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="25">
+        <v>44</v>
+      </c>
+      <c r="B45" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="27">
-        <v>5.0</v>
-      </c>
-      <c r="D45" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="E45" s="27"/>
+      <c r="C45" s="25">
+        <v>5</v>
+      </c>
+      <c r="D45" s="25">
+        <v>2</v>
+      </c>
+      <c r="E45" s="25"/>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>